--- a/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
+++ b/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
@@ -451,799 +451,1079 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9981</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4985</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3715</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>008633</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>万家科技创新混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>90.77</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.78</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4329</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>008634</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>万家科技创新混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>90.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5.78</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010147</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博道嘉兴一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001663</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银互联网+股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000522</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华润元大信息传媒科技混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>80.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>97.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001663</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银互联网+股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>85.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000432</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中银优秀企业混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>580001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东吴嘉禾优势精选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001474</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>兴银丰盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003659</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>山西证券策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008208</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博道嘉泰回报混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>76.31</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008467</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博道嘉瑞混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>76.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008468</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博道嘉瑞混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>76.09</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008793</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博道嘉元混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008794</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博道嘉元混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008037</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>兴银先锋成长混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>80.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008038</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>兴银先锋成长混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>80.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>49.70</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005311</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005312</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1253,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,15 +1554,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1304,15 +1594,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>165.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>87.86</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.82</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003659</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>山西证券策略精选灵活配置混合</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>24.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004930</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合A</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.93</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004931</t>
+          <t>010147</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合C</t>
+          <t>博道嘉兴一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.93</t>
+          <t>32.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3785</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>005311</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合A</t>
+          <t>万家经济新动能混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011228</t>
+          <t>010755</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合C</t>
+          <t>博道睿见一年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>11.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009353</t>
+          <t>005312</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
+          <t>万家经济新动能混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009354</t>
+          <t>008467</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
+          <t>博道嘉瑞混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>008208</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>博道嘉泰回报混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>75.36</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4840</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009883</t>
+          <t>008633</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合C</t>
+          <t>万家科技创新混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>75.36</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>008793</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>博道嘉元混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>74.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000432</t>
+          <t>540010</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中银优秀企业混合</t>
+          <t>汇丰晋信科技先锋股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.61</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1640,15 +2050,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>79.16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>7.86</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010147</t>
+          <t>005904</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博道嘉兴一年持有期混合</t>
+          <t>华泰保兴成长优选混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>88.39</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>008634</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>万家科技创新混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>西部利得量化成长混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010755</t>
+          <t>005310</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博道睿见一年持有期混合</t>
+          <t>广发电子信息传媒产业精选股票A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001339</t>
+          <t>008468</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>兴银鼎新灵活配置混合</t>
+          <t>博道嘉瑞混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001573</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>南方互联网+灵活配置混合</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>70.38</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>004930</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>华润元大价值优选混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>540010</t>
+          <t>009353</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇丰晋信科技先锋股票</t>
+          <t>浙商科技创新一个月滚动持有混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>163818</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>中银中小盘成长混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005027</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30.59</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008633</t>
+          <t>005027</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>万家科技创新混合A</t>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>30.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008634</t>
+          <t>001573</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>万家科技创新混合C</t>
+          <t>南方互联网+灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1994,25 +2534,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008793</t>
+          <t>008794</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>博道嘉元混合A</t>
+          <t>博道嘉元混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>74.77</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>4.23</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008794</t>
+          <t>009883</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>博道嘉元混合C</t>
+          <t>华润元大核心动力混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>74.77</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005310</t>
+          <t>003659</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>广发电子信息传媒产业精选股票A</t>
+          <t>山西证券策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>82.67</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010236</t>
+          <t>004931</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>广发电子信息传媒产业精选股票C</t>
+          <t>华润元大价值优选混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>82.67</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005311</t>
+          <t>001339</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>万家经济新动能混合A</t>
+          <t>兴银鼎新灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005312</t>
+          <t>000432</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>万家经济新动能混合C</t>
+          <t>中银优秀企业混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2162,25 +2762,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>005904</t>
+          <t>009354</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合A</t>
+          <t>浙商科技创新一个月滚动持有混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>005905</t>
+          <t>010236</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合C</t>
+          <t>广发电子信息传媒产业精选股票C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>008208</t>
+          <t>005905</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>博道嘉泰回报混合</t>
+          <t>华泰保兴成长优选混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>008467</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>博道嘉瑞混合A</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>75.28</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>008468</t>
+          <t>011228</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>博道嘉瑞混合C</t>
+          <t>西部利得量化成长混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>75.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>163818</t>
+          <t>006157</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中银中小盘成长混合</t>
+          <t>财通量化核心优选混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>3</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
+++ b/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2987,4 +2988,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.1436</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6934</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5623</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4537</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4382</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
+++ b/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3728,4 +3729,2036 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.8169</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1786</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1182</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9107</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9070</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5950</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5884</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5655</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5129</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3955</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2293</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>49.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
+++ b/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5761,4 +5762,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
+++ b/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5770,7 +5771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5781,17 +5782,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5801,14 +5822,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.51</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5817,14 +5860,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.04</v>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2827</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5833,14 +5898,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.86</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2541</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5849,13 +5936,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5797</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5559</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5541</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5498</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
+++ b/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6625,7 +6626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6636,17 +6637,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6656,14 +6677,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.63</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6672,14 +6715,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.51</v>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6688,14 +6753,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.04</v>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6704,14 +6791,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.86</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4624</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6720,13 +6829,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0589</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5666</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
+++ b/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7176,7 +7177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7187,17 +7188,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7207,14 +7228,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.53</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7223,14 +7266,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.63</v>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6578</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7239,14 +7304,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.51</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6734</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7255,14 +7342,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.04</v>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4766</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -7271,14 +7380,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.86</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3428</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -7287,13 +7418,601 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5160</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5031</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4452</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
+++ b/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>14.53</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>20.63</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>36.51</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>19.04</v>
+        <v>36.51</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>17.86</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>27</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.01</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1397</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9471</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4995</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4709</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4627</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1301,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1851,7 +2608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2705,7 +3462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4737,7 +5494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5477,7 +6234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6939,7 +7696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
+++ b/数据整理/stocks/A股/科创板/688023-安恒信息.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>14.67</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>14.53</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>20.63</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>36.51</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>19.04</v>
+        <v>36.51</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>17.86</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1112 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9981</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4985</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3715</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4329</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001663</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银互联网+股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1716,1428 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5929</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9851</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳核心科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0725</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0293</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6748</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5508</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>53.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>德邦上证 G60 创新综合指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦上证 G60 创新综合指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1356,7 +3877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2058,7 +4579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2608,7 +5129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3462,7 +5983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5494,7 +8015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6234,7 +8755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7694,1086 +10215,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005311</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9981</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4985</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010147</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博道嘉兴一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>67.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3715</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005312</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6067</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008633</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4329</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008208</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博道嘉泰回报混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4289</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008793</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博道嘉元混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3785</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008467</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博道嘉瑞混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>76.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3766</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000522</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华润元大信息传媒科技混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1819</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>580001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东吴嘉禾优势精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1734</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008634</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>万家科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1335</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0782</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008468</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博道嘉瑞混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>76.09</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0502</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009353</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0429</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008037</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>兴银先锋成长混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>80.03</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0422</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000432</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中银优秀企业混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0338</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001663</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银互联网+股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>85.31</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008794</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博道嘉元混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003659</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>山西证券策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009354</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>浙商科技创新一个月滚动持有混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008038</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>兴银先锋成长混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>80.03</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001474</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>兴银丰盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>49.70</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>